--- a/Disagreement/描述性统计.xlsx
+++ b/Disagreement/描述性统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Untitled\Untitled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Presentation1101\Disagreement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D667A80C-C29B-4833-B1D3-D5F9F15671D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC40896-C454-42AD-8E9D-A334DB7A27C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F473FEE1-5BB8-4C5A-839D-C7C71FD075F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Median</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>AnalystDis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockTurn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFDis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,6 +86,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,8 +129,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,11 +455,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C72646-429D-4EE2-AEA1-E0444FB4788A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -468,277 +490,247 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
+      <c r="F2" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>326099</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
+      <c r="F3" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="G3" s="2">
+        <v>326099</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
+      <c r="B4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>37.82</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>283460</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>230.75</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>326097</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>314767</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
+      <c r="F7" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G7" s="2">
+        <v>79174</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
+      <c r="F8" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G8" s="2">
+        <v>79174</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="2">
+        <v>77346</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.76</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G10" s="2">
+        <v>79174</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>78135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
